--- a/arsel/data_ar/CheckRule/TestData/XVal_TESTPRODUCT_1005_20141231_CARv5.xlsx
+++ b/arsel/data_ar/CheckRule/TestData/XVal_TESTPRODUCT_1005_20141231_CARv5.xlsx
@@ -115,11 +115,11 @@
   </si>
   <si>
     <t>[PageInstance:3] 
-[PageInstance:3]Some cells or their values do not exist, and the assumed value is applied</t>
+Some cells or their values do not exist, and the assumed value is applied</t>
   </si>
   <si>
     <t>[PageInstance:1]CAOFR180 &gt;= CREIR020C040@CREI[-2] 
-[PageInstance:1]Some cells or their values do not exist, and the assumed value is applied</t>
+Some cells or their values do not exist, and the assumed value is applied</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -603,7 +603,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
